--- a/SF_golden_retrievers_notes_docs.xlsx
+++ b/SF_golden_retrievers_notes_docs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobetran/Documents/Personal_Projects/WebDevelopment/puppystore_folder/sf-golden-retrievers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124BAAEB-26DC-4E4E-ABED-2255BF6E513B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE807CDA-3864-064C-B49D-004F4D8D9D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22720" yWindow="4400" windowWidth="28100" windowHeight="17440" xr2:uid="{EF9E5897-A4C8-0940-835F-E98CCC07B42F}"/>
+    <workbookView xWindow="22720" yWindow="4400" windowWidth="28100" windowHeight="17440" activeTab="1" xr2:uid="{EF9E5897-A4C8-0940-835F-E98CCC07B42F}"/>
   </bookViews>
   <sheets>
     <sheet name="SF Golden Retrievers Docs" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://www.youtube.com/watch?v=zxfhf-V4JFQ</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>trying to reuse nav bar throughout all pages</t>
+  </si>
+  <si>
+    <t>Need to add nav button</t>
   </si>
 </sst>
 </file>
@@ -418,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0931B72C-E13B-174B-82B7-F0BD30C5A385}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -459,4 +463,22 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1030E9BE-D40B-AC40-B2F5-908DDC0CE9D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SF_golden_retrievers_notes_docs.xlsx
+++ b/SF_golden_retrievers_notes_docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobetran/Documents/Personal_Projects/WebDevelopment/puppystore_folder/sf-golden-retrievers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE807CDA-3864-064C-B49D-004F4D8D9D76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40B67B-C8E7-BF4A-ADE1-3EB242EF3DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22720" yWindow="4400" windowWidth="28100" windowHeight="17440" activeTab="1" xr2:uid="{EF9E5897-A4C8-0940-835F-E98CCC07B42F}"/>
+    <workbookView xWindow="22720" yWindow="4400" windowWidth="28100" windowHeight="17440" xr2:uid="{EF9E5897-A4C8-0940-835F-E98CCC07B42F}"/>
   </bookViews>
   <sheets>
     <sheet name="SF Golden Retrievers Docs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.youtube.com/watch?v=zxfhf-V4JFQ</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Need to add nav button</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wpGNFGqNfdU</t>
+  </si>
+  <si>
+    <t>nav bar side menu</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0931B72C-E13B-174B-82B7-F0BD30C5A385}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -453,6 +459,14 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="95">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -469,7 +483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1030E9BE-D40B-AC40-B2F5-908DDC0CE9D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>

--- a/SF_golden_retrievers_notes_docs.xlsx
+++ b/SF_golden_retrievers_notes_docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobetran/Documents/Personal_Projects/WebDevelopment/puppystore_folder/sf-golden-retrievers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40B67B-C8E7-BF4A-ADE1-3EB242EF3DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD9486E-4770-4342-8161-4467CC035B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22720" yWindow="4400" windowWidth="28100" windowHeight="17440" xr2:uid="{EF9E5897-A4C8-0940-835F-E98CCC07B42F}"/>
+    <workbookView xWindow="22720" yWindow="4400" windowWidth="28100" windowHeight="17440" activeTab="1" xr2:uid="{EF9E5897-A4C8-0940-835F-E98CCC07B42F}"/>
   </bookViews>
   <sheets>
     <sheet name="SF Golden Retrievers Docs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>https://www.youtube.com/watch?v=zxfhf-V4JFQ</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>trying to reuse nav bar throughout all pages</t>
-  </si>
-  <si>
-    <t>Need to add nav button</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wpGNFGqNfdU</t>
@@ -428,9 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0931B72C-E13B-174B-82B7-F0BD30C5A385}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -462,11 +457,11 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="95">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -474,6 +469,7 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{B34F3D16-C12F-7246-8219-B7FE11BF8365}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{63FB0CC0-B2A5-4F42-86EE-8868DE3A42B8}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{FCC9390B-D457-2048-9B36-7E0FDD37F5E8}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{3D2CC001-9E4A-044A-AA59-CEF982275AF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -483,18 +479,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1030E9BE-D40B-AC40-B2F5-908DDC0CE9D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>